--- a/class_schedules_spring_2019/STATISTICAL METHODS (STAT).xlsx
+++ b/class_schedules_spring_2019/STATISTICAL METHODS (STAT).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>113</t>
   </si>
@@ -25,34 +25,85 @@
     <t>01</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
     <t>16054</t>
   </si>
   <si>
+    <t>0800</t>
+  </si>
+  <si>
+    <t>16055</t>
+  </si>
+  <si>
+    <t>0900</t>
+  </si>
+  <si>
+    <t>18571</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
     <t>19524</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>0850am SCTR</t>
+  </si>
+  <si>
+    <t>0950am SCTR</t>
+  </si>
+  <si>
+    <t>1050am SCTR</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Introduction to Statistics MWF</t>
-  </si>
-  <si>
-    <t>Mathematical Statistics MWF</t>
-  </si>
-  <si>
-    <t>0800-0850am</t>
-  </si>
-  <si>
-    <t>0130-0220pm</t>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>Introduction to Statistics</t>
+  </si>
+  <si>
+    <t>Mathematical Statistics</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0850am</t>
+  </si>
+  <si>
+    <t>0950am</t>
+  </si>
+  <si>
+    <t>1050am</t>
+  </si>
+  <si>
+    <t>0220pm</t>
   </si>
   <si>
     <t>KING</t>
   </si>
   <si>
+    <t>SEVE</t>
+  </si>
+  <si>
     <t>341</t>
+  </si>
+  <si>
+    <t>108</t>
   </si>
   <si>
     <t>243</t>
@@ -419,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -456,8 +507,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -468,63 +525,208 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
-        <v>15</v>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
